--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2737350.406010746</v>
+        <v>2735462.824494345</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>39.01104463634017</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,13 +716,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -801,7 +801,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034768</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>50.43151777216848</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>50.43151777216858</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>11.42298697363612</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>332.3986578799465</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>156.127162662147</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>15.14483238681376</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>35.12287234938797</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.23266789331969</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>94.16481274941236</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>211.4593910168944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,19 +1765,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>39.11561436815849</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,16 +1822,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>141.1430962190942</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>24.0115390332549</v>
+        <v>26.97444673954919</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,19 +2293,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151919</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>118.2422920270593</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>163.9563538534668</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>195.8155841663238</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>96.84207451769356</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>188.4590648403947</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533805</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.043564470071</v>
       </c>
       <c r="D31" t="n">
-        <v>38.78243893493242</v>
+        <v>93.41221638965555</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801217</v>
+        <v>91.23070601801237</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897913</v>
+        <v>93.71057173897933</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571497</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523577</v>
+        <v>54.76109577523597</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550464</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298324</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700205</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952712</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080342</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604804</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>111.8765232158084</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373703</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463134</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.54646147304</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1954.141365880777</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274026</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861747</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,10 +4352,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
         <v>2247.308246834948</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
         <v>505.8730812692495</v>
@@ -4404,28 +4404,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915165</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.81559303506</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,7 +4446,7 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
         <v>1364.473611002105</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.8839088629589</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245968</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>286.5323736931986</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U4" t="n">
-        <v>286.5323736931986</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V4" t="n">
-        <v>286.5323736931986</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>286.5323736931986</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>286.5323736931986</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>286.5323736931986</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1603.407129497228</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="C5" t="n">
-        <v>1234.444612556816</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D5" t="n">
-        <v>876.1789139500659</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>490.3906613518216</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>79.40475656221406</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>65.48135250080496</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X5" t="n">
-        <v>1993.54646147304</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y5" t="n">
-        <v>1603.407129497228</v>
+        <v>1714.263756178945</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036376</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>570.4247794971948</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036444</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036444</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036444</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.8148076117928</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2681.851280526491</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2681.851280526491</v>
+        <v>2430.46526502512</v>
       </c>
       <c r="U8" t="n">
-        <v>2681.851280526491</v>
+        <v>2430.46526502512</v>
       </c>
       <c r="V8" t="n">
-        <v>2350.788393182921</v>
+        <v>2099.402377681549</v>
       </c>
       <c r="W8" t="n">
-        <v>1998.019737912806</v>
+        <v>1746.633722411435</v>
       </c>
       <c r="X8" t="n">
-        <v>1624.553979651726</v>
+        <v>1373.167964150355</v>
       </c>
       <c r="Y8" t="n">
-        <v>1234.414647675915</v>
+        <v>983.0286321745434</v>
       </c>
     </row>
     <row r="9">
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>565.6058934251438</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>565.6058934251438</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406182</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406182</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,25 +5039,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5072,19 +5072,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5127,19 +5127,19 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028581</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="E13" t="n">
         <v>97.21709146028587</v>
@@ -5203,46 +5203,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1009.867621687013</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>720.4504516500524</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X13" t="n">
-        <v>492.4609007520351</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>192.3330639344398</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,13 +5276,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5358,25 +5358,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
         <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1725.96990386717</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>732.3583290631011</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="C16" t="n">
-        <v>563.4221461351942</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="D16" t="n">
-        <v>413.3055067228585</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028587</v>
@@ -5440,7 +5440,7 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471194</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U16" t="n">
-        <v>874.9271131227922</v>
+        <v>835.4163915387937</v>
       </c>
       <c r="V16" t="n">
-        <v>732.3583290631011</v>
+        <v>835.4163915387937</v>
       </c>
       <c r="W16" t="n">
-        <v>732.3583290631011</v>
+        <v>545.9992215018331</v>
       </c>
       <c r="X16" t="n">
-        <v>732.3583290631011</v>
+        <v>318.0096706038157</v>
       </c>
       <c r="Y16" t="n">
-        <v>732.3583290631011</v>
+        <v>97.21709146028562</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,10 +5513,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,13 +5525,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>159.1396882805839</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>570.0299571250966</v>
+        <v>378.1030765138935</v>
       </c>
       <c r="L18" t="n">
-        <v>816.7950850315608</v>
+        <v>624.8682044203576</v>
       </c>
       <c r="M18" t="n">
-        <v>1124.115218311523</v>
+        <v>932.1883377003194</v>
       </c>
       <c r="N18" t="n">
-        <v>1453.977845975555</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5674,7 +5674,7 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799365</v>
@@ -5701,19 +5701,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1050.956765431391</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V19" t="n">
-        <v>796.2722772255036</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>506.8551071885429</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>278.8655562905255</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
         <v>278.8655562905255</v>
@@ -5729,16 +5729,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,16 +5747,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5771,25 +5771,25 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5817,34 +5817,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701562</v>
+        <v>303.4575213834692</v>
       </c>
       <c r="L21" t="n">
-        <v>1163.495507227045</v>
+        <v>550.2226492899333</v>
       </c>
       <c r="M21" t="n">
-        <v>1470.815640507007</v>
+        <v>857.5427825698951</v>
       </c>
       <c r="N21" t="n">
-        <v>1800.678268171039</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028586</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688073</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>385.5899330013841</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028586</v>
+        <v>385.5899330013841</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028586</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6008,31 +6008,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>485.520085263587</v>
+        <v>412.6079778147083</v>
       </c>
       <c r="L24" t="n">
-        <v>1099.417155020476</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M24" t="n">
-        <v>1406.737288300438</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.59991596447</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.1070389581961</v>
+        <v>434.3285960683722</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581961</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581961</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581961</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028586</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609666</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550798</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181192</v>
+        <v>843.9666117966293</v>
       </c>
       <c r="X25" t="n">
-        <v>244.1070389581961</v>
+        <v>615.977060898612</v>
       </c>
       <c r="Y25" t="n">
-        <v>244.1070389581961</v>
+        <v>615.977060898612</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,13 +6221,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6245,31 +6245,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>410.8745301331627</v>
+        <v>412.6079778147083</v>
       </c>
       <c r="L27" t="n">
-        <v>1024.771599890051</v>
+        <v>659.3731057211725</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.3337308726217</v>
+        <v>195.0373687508855</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726217</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
@@ -6388,7 +6388,7 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471194</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1308.553578799928</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>1019.424940013487</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V28" t="n">
-        <v>764.7404518075996</v>
+        <v>933.2366688293935</v>
       </c>
       <c r="W28" t="n">
-        <v>475.323281770639</v>
+        <v>643.8194987924329</v>
       </c>
       <c r="X28" t="n">
-        <v>247.3337308726217</v>
+        <v>415.8299478944156</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.3337308726217</v>
+        <v>195.0373687508855</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6485,28 +6485,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6528,34 +6528,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147083</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>659.3731057211725</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1757.603879777667</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163768</v>
+        <v>491.5575547094966</v>
       </c>
       <c r="C31" t="n">
-        <v>491.3888261698407</v>
+        <v>378.3822370629602</v>
       </c>
       <c r="D31" t="n">
-        <v>452.2146454274847</v>
+        <v>284.026462931995</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264623</v>
+        <v>191.8742346309721</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264623</v>
+        <v>191.8742346309721</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>191.8742346309721</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933497</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667502</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962051</v>
+        <v>997.6688721962043</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353691</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096191</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167068</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356661996</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.33673373748</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818929</v>
+        <v>902.6804289818897</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652459</v>
+        <v>730.4517433652429</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652459</v>
+        <v>617.4451542583657</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>796.3635653766205</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2379.156885434022</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,13 +6877,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>644.675512255521</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619851</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1333.825180851559</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1663.687808515592</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
         <v>221.529509210313</v>
@@ -7090,16 +7090,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7108,7 +7108,7 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
         <v>1932.236826184157</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7178,46 +7178,46 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115523</v>
+        <v>901.6749225845923</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059517</v>
+        <v>2013.406634128705</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>2292.946699347402</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2497.969180129612</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7357,10 +7357,10 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025263</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,37 +7476,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M42" t="n">
-        <v>1470.815640507007</v>
+        <v>841.8631140141293</v>
       </c>
       <c r="N42" t="n">
-        <v>1800.678268171039</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>2080.218333389736</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7573,22 +7573,22 @@
         <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,34 +7625,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7661,13 +7661,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>563.7235867775516</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7792,7 +7792,7 @@
         <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,7 +7846,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010318</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360582</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,22 +8775,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>165.9802687929762</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165111</v>
+        <v>94.13752431970505</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720729</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>20.63789864135395</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>91.23759968302019</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,19 +9252,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,28 +9480,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>15.83804904622795</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>199.7396287231148</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>369.0893880493724</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>124.3400780863225</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>50.62661940943531</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,22 +10191,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>76.43196988338411</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>148.1350559470632</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>234.411650950316</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>392.1113620226428</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.7164198729829</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,19 +10899,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776746</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10920,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>38.86002301949804</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11139,28 +11139,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>360.5026862907246</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>253.7371603504737</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,22 +11373,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>29.47535963978197</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>272.8719470256804</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>52.2691498971568</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.125262335200375</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,19 +23653,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>158.8051956154447</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>110.9945471047338</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>262.2258133653224</v>
+        <v>259.2629056590281</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>100.3423613250354</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,22 +24412,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.59120720492245</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>29.89407122271336</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,10 +24601,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>70.40474658093427</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>33.08849621799459</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>54.62977745472293</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437425</v>
+        <v>90.21779139437444</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348208</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571517</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>51.50487350772959</v>
       </c>
     </row>
     <row r="32">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>789187.0574408497</v>
+        <v>789187.0574408496</v>
       </c>
     </row>
     <row r="11">
@@ -26314,46 +26314,46 @@
         <v>615781.3273982131</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.327398213</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="F2" t="n">
+        <v>586543.5896065633</v>
+      </c>
+      <c r="G2" t="n">
         <v>586543.5896065629</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>586543.5896065632</v>
+      </c>
+      <c r="I2" t="n">
         <v>586543.5896065631</v>
-      </c>
-      <c r="G2" t="n">
-        <v>586543.5896065631</v>
-      </c>
-      <c r="H2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="I2" t="n">
-        <v>586543.5896065627</v>
       </c>
       <c r="J2" t="n">
         <v>586543.589606563</v>
       </c>
       <c r="K2" t="n">
-        <v>610233.2060179054</v>
+        <v>610233.2060179049</v>
       </c>
       <c r="L2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="M2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="N2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="O2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982127</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284561</v>
+        <v>44162.60530284543</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086703</v>
+        <v>10342.90680086694</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284551</v>
+        <v>44162.6053028453</v>
       </c>
     </row>
     <row r="4">
@@ -26418,7 +26418,7 @@
         <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
@@ -26427,34 +26427,34 @@
         <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007455</v>
+        <v>7916.731656007454</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007454</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007499</v>
+        <v>7916.731656007456</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007452</v>
+        <v>7916.731656007414</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020399</v>
+        <v>26081.35417020386</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732789</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732789</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732789</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732796</v>
@@ -26485,28 +26485,28 @@
         <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-204962.6785956616</v>
+        <v>-204962.6785956617</v>
       </c>
       <c r="C6" t="n">
-        <v>385005.2006188822</v>
+        <v>385005.2006188827</v>
       </c>
       <c r="D6" t="n">
-        <v>385005.200618882</v>
+        <v>385005.2006188821</v>
       </c>
       <c r="E6" t="n">
-        <v>-38520.50447505752</v>
+        <v>-38617.96360102945</v>
       </c>
       <c r="F6" t="n">
-        <v>486639.532001839</v>
+        <v>486542.0728758668</v>
       </c>
       <c r="G6" t="n">
-        <v>486639.532001839</v>
+        <v>486542.0728758666</v>
       </c>
       <c r="H6" t="n">
-        <v>486639.5320018388</v>
+        <v>486542.0728758669</v>
       </c>
       <c r="I6" t="n">
-        <v>486639.5320018387</v>
+        <v>486542.0728758668</v>
       </c>
       <c r="J6" t="n">
-        <v>310216.3128092458</v>
+        <v>310118.8536832737</v>
       </c>
       <c r="K6" t="n">
-        <v>443361.038014633</v>
+        <v>443342.5442766984</v>
       </c>
       <c r="L6" t="n">
         <v>477387.7958799922</v>
       </c>
       <c r="M6" t="n">
-        <v>352929.6874470221</v>
+        <v>352929.687447022</v>
       </c>
       <c r="N6" t="n">
-        <v>487730.702680859</v>
+        <v>487730.7026808592</v>
       </c>
       <c r="O6" t="n">
         <v>487730.7026808592</v>
       </c>
       <c r="P6" t="n">
-        <v>443568.0973780136</v>
+        <v>443568.0973780142</v>
       </c>
     </row>
   </sheetData>
@@ -26710,16 +26710,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855679</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964064</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26747,37 +26747,37 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26811,22 +26811,22 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
+        <v>1215.213643253574</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1215.213643253574</v>
+      </c>
+      <c r="L4" t="n">
         <v>1215.213643253573</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>1215.213643253573</v>
       </c>
-      <c r="L4" t="n">
-        <v>1215.213643253574</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1215.213643253574</v>
-      </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855679</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108365</v>
+        <v>12.92863350108382</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855681</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990177</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855679</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>326.2618471346674</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>116.8153033264594</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>235.8503564698092</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>312.499785790721</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>53.8392807761071</v>
       </c>
     </row>
     <row r="6">
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>56.01837628787186</v>
+        <v>22.54869530067504</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,10 +27859,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>159.2708804221578</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>181.3254480082698</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.5993122886176</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>96.68503059263384</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.384319086127909e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855679</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855679</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855679</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855679</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855679</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855679</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855679</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855679</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855679</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855679</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855679</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855679</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855679</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855679</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855679</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855679</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855679</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855679</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855679</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855679</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855679</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855679</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855679</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855679</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-1.620037437533028e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="41">
@@ -31039,16 +31039,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
         <v>193.1674799081577</v>
@@ -31060,25 +31060,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,31 +31118,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479577</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -32008,13 +32008,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647497</v>
@@ -32029,7 +32029,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32084,7 +32084,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813463</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,10 +32145,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
         <v>45.03122946298631</v>
@@ -32157,10 +32157,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
@@ -32169,7 +32169,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,13 +32181,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
         <v>34.18755300444946</v>
@@ -32245,13 +32245,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647497</v>
@@ -32266,7 +32266,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32321,7 +32321,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813463</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,10 +32382,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
         <v>45.03122946298631</v>
@@ -32394,10 +32394,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
         <v>234.725964217132</v>
@@ -32406,7 +32406,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,13 +32418,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32482,13 +32482,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32503,7 +32503,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32558,7 +32558,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813463</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,10 +32619,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32631,10 +32631,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32643,7 +32643,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,13 +32655,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32707,40 +32707,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32792,19 +32792,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32813,13 +32813,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
         <v>34.18755300444946</v>
@@ -32956,13 +32956,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647497</v>
@@ -32977,7 +32977,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33032,7 +33032,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813463</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,10 +33093,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
         <v>45.03122946298631</v>
@@ -33105,10 +33105,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
         <v>234.725964217132</v>
@@ -33117,7 +33117,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33129,13 +33129,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
         <v>34.18755300444946</v>
@@ -33193,13 +33193,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647497</v>
@@ -33214,7 +33214,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33269,7 +33269,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
         <v>464.5362854813463</v>
@@ -33290,7 +33290,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,10 +33330,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
         <v>45.03122946298631</v>
@@ -33342,10 +33342,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
         <v>234.725964217132</v>
@@ -33354,7 +33354,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33366,13 +33366,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
         <v>34.18755300444946</v>
@@ -33430,13 +33430,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647497</v>
@@ -33451,7 +33451,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33506,7 +33506,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813463</v>
@@ -33527,7 +33527,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,10 +33567,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
         <v>45.03122946298631</v>
@@ -33579,10 +33579,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
         <v>234.725964217132</v>
@@ -33591,7 +33591,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33603,13 +33603,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
         <v>34.18755300444946</v>
@@ -33667,13 +33667,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647497</v>
@@ -33688,7 +33688,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33743,7 +33743,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813463</v>
@@ -33764,7 +33764,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,10 +33804,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
         <v>45.03122946298631</v>
@@ -33816,10 +33816,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
         <v>234.725964217132</v>
@@ -33828,7 +33828,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33840,13 +33840,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
         <v>34.18755300444946</v>
@@ -33904,13 +33904,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647497</v>
@@ -33925,7 +33925,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33980,7 +33980,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813463</v>
@@ -34001,7 +34001,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,10 +34041,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
         <v>45.03122946298631</v>
@@ -34053,10 +34053,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
         <v>234.725964217132</v>
@@ -34065,7 +34065,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,13 +34077,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
         <v>34.18755300444946</v>
@@ -34141,13 +34141,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647497</v>
@@ -34162,7 +34162,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34217,7 +34217,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
         <v>464.5362854813463</v>
@@ -34238,7 +34238,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,10 +34278,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
         <v>45.03122946298631</v>
@@ -34290,10 +34290,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
         <v>234.725964217132</v>
@@ -34302,7 +34302,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34314,13 +34314,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,13 +34857,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
         <v>148.370846145888</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839184</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35495,22 +35495,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>499.1748421909892</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35656,19 +35656,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879393</v>
@@ -35732,22 +35732,22 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
-        <v>756.532252314524</v>
+        <v>427.3320977177181</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056037</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415071</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35893,19 +35893,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>62.54807759626066</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>241.8130382709595</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560244</v>
@@ -35972,16 +35972,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056037</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36130,19 +36130,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>166.4134876341673</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>460.8305752819984</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>350.3150673110541</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>618.3470930053969</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36522,19 +36522,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36604,19 +36604,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>274.9155166742618</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>361.0509964599017</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
         <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36759,7 +36759,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056037</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36841,19 +36841,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>358.7956721244924</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.71102679412235</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584674</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084854</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341605</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403576</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.42895660043158</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37078,19 +37078,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005179</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>236.1480887321374</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>384.9870895382552</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>674.4750642637511</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>537.666887533699</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>126.8730558045722</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502436</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37789,19 +37789,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>693.6972596887376</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>460.8305752819984</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38020,25 +38020,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>555.2356492667885</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
